--- a/datatest.xlsx
+++ b/datatest.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwann\source\repos\SchoolProjectB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E7B50BA-910B-4B36-9C78-0548AAC9FB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F443C7-EA17-41B8-B9E5-D3ED997DC029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
   <si>
     <t>UTILISATEURS</t>
   </si>
@@ -395,12 +395,165 @@
   </si>
   <si>
     <t>#id_instrument</t>
+  </si>
+  <si>
+    <t>McBride</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>c.mcbride</t>
+  </si>
+  <si>
+    <t>Mehldau</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>b.mehldau</t>
+  </si>
+  <si>
+    <t>Gillespie</t>
+  </si>
+  <si>
+    <t>Dizzie</t>
+  </si>
+  <si>
+    <t>d.gillespie</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>c.parker</t>
+  </si>
+  <si>
+    <t>Roach</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>m.roach</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>t.williams</t>
+  </si>
+  <si>
+    <t>Herbie</t>
+  </si>
+  <si>
+    <t>Hancock</t>
+  </si>
+  <si>
+    <t>h.hancock</t>
+  </si>
+  <si>
+    <t>Motian</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>p.motian</t>
+  </si>
+  <si>
+    <t>Pastorius</t>
+  </si>
+  <si>
+    <t>Jaco</t>
+  </si>
+  <si>
+    <t>j.pastorius</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>r.carter</t>
+  </si>
+  <si>
+    <t>Mingus</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>c.mingus</t>
+  </si>
+  <si>
+    <t>Corea</t>
+  </si>
+  <si>
+    <t>Chick</t>
+  </si>
+  <si>
+    <t>c.corea</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Clifford</t>
+  </si>
+  <si>
+    <t>Fuller</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>c.fuller</t>
+  </si>
+  <si>
+    <t>c.brown</t>
+  </si>
+  <si>
+    <t>Shorter</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>w.shorter</t>
+  </si>
+  <si>
+    <t>Bechet</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>s.bechet</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>j.hall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1240,11 +1393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1785,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>19</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1666,7 +1821,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>20</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1675,7 +1832,9 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1700,7 +1859,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>21</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1709,7 +1870,9 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -1732,7 +1895,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>22</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1741,7 +1906,9 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -1764,7 +1931,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>23</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1773,7 +1942,9 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -1796,7 +1967,9 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>24</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1805,7 +1978,9 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -1828,7 +2003,9 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>25</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1860,7 +2037,9 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>26</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -1892,7 +2071,9 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>27</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1901,7 +2082,9 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -1924,7 +2107,9 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>28</v>
+      </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1956,7 +2141,9 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>29</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1988,7 +2175,9 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>30</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1997,12 +2186,24 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2010,7 +2211,9 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>31</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2019,12 +2222,24 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2032,7 +2247,9 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>32</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2041,12 +2258,24 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2054,7 +2283,9 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>33</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2063,26 +2294,34 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="A26" s="1">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1">
+        <v>34</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -2091,42 +2330,32 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>69</v>
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1234</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2135,42 +2364,32 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="1">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="1">
-        <v>100</v>
-      </c>
-      <c r="I28" s="1">
-        <v>3</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28" s="1">
-        <v>3</v>
-      </c>
-      <c r="N28" s="1">
-        <v>4</v>
-      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2179,42 +2398,32 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>7</v>
+      </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="1">
-        <v>18</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="1">
-        <v>120</v>
-      </c>
-      <c r="I29" s="1">
-        <v>3</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1">
-        <v>2</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M29" s="1">
-        <v>3</v>
-      </c>
-      <c r="N29" s="1">
-        <v>5</v>
-      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2223,29 +2432,27 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="1">
-        <v>30</v>
-      </c>
-      <c r="I30" s="1">
-        <v>3</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2259,23 +2466,27 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1">
-        <v>4</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H31" s="1">
-        <v>35</v>
-      </c>
-      <c r="I31" s="1">
-        <v>3</v>
-      </c>
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2289,25 +2500,27 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="1">
-        <v>25</v>
-      </c>
-      <c r="I32" s="1">
-        <v>3</v>
-      </c>
+      <c r="A32" s="1">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2321,29 +2534,27 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>90</v>
+      <c r="A33" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1">
-        <v>6</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="1">
-        <v>20</v>
-      </c>
-      <c r="I33" s="1">
-        <v>3</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2357,23 +2568,27 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
         <v>30</v>
       </c>
-      <c r="I34" s="1">
-        <v>3</v>
-      </c>
+      <c r="C34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2387,23 +2602,27 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1">
+      <c r="A35" s="1">
         <v>8</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="1">
-        <v>10</v>
-      </c>
-      <c r="I35" s="1">
-        <v>3</v>
-      </c>
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2417,23 +2636,27 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1">
-        <v>9</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="1">
-        <v>20</v>
-      </c>
-      <c r="I36" s="1">
-        <v>3</v>
-      </c>
+      <c r="A36" s="1">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2447,23 +2670,27 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="1">
-        <v>10</v>
-      </c>
-      <c r="I37" s="1">
-        <v>3</v>
-      </c>
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2477,23 +2704,27 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1">
-        <v>11</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="1">
-        <v>5</v>
-      </c>
-      <c r="I38" s="1">
-        <v>3</v>
-      </c>
+      <c r="A38" s="1">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2512,24 +2743,14 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1">
-        <v>12</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" s="1">
-        <v>15</v>
-      </c>
-      <c r="I39" s="1">
-        <v>3</v>
-      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2544,28 +2765,14 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1">
-        <v>13</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="1">
-        <v>10</v>
-      </c>
-      <c r="I40" s="1">
-        <v>3</v>
-      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2580,30 +2787,14 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1">
-        <v>14</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="1">
-        <v>20</v>
-      </c>
-      <c r="I41" s="1">
-        <v>3</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2618,28 +2809,14 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1">
-        <v>15</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" s="1">
-        <v>10</v>
-      </c>
-      <c r="I42" s="1">
-        <v>3</v>
-      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1">
-        <v>2</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2659,15 +2836,9 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1">
-        <v>3</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M43" s="1">
-        <v>1</v>
-      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2679,23 +2850,25 @@
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1">
-        <v>4</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M44" s="1">
-        <v>1</v>
-      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2715,15 +2888,9 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1">
-        <v>5</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M45" s="1">
-        <v>2</v>
-      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2734,25 +2901,25 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="F46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1">
-        <v>6</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M46" s="1">
-        <v>2</v>
-      </c>
-      <c r="N46" s="1"/>
+      <c r="K46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -2762,25 +2929,41 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="1">
-        <v>7</v>
+      <c r="K47" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M47" s="1">
-        <v>2</v>
-      </c>
-      <c r="N47" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -2790,25 +2973,41 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="1">
+        <v>17</v>
+      </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" s="1">
+        <v>100</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M48" s="1">
-        <v>2</v>
-      </c>
-      <c r="N48" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="N48" s="1">
+        <v>4</v>
+      </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -2818,19 +3017,41 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="1">
+        <v>18</v>
+      </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="1">
+        <v>120</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3</v>
+      </c>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="K49" s="1">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M49" s="1">
+        <v>3</v>
+      </c>
+      <c r="N49" s="1">
+        <v>5</v>
+      </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -2840,14 +3061,28 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="B50" s="1">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="1">
+        <v>30</v>
+      </c>
+      <c r="I50" s="1">
+        <v>3</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2866,10 +3101,18 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="1">
+        <v>35</v>
+      </c>
+      <c r="I51" s="1">
+        <v>3</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2884,14 +3127,24 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="F52" s="1">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="1">
+        <v>25</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2906,14 +3159,28 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="F53" s="1">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H53" s="1">
+        <v>20</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2932,10 +3199,18 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="F54" s="1">
+        <v>7</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="1">
+        <v>30</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -2954,10 +3229,18 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="F55" s="1">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55" s="1">
+        <v>10</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -2976,10 +3259,18 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="F56" s="1">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" s="1">
+        <v>20</v>
+      </c>
+      <c r="I56" s="1">
+        <v>3</v>
+      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -2998,10 +3289,18 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="F57" s="1">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" s="1">
+        <v>10</v>
+      </c>
+      <c r="I57" s="1">
+        <v>3</v>
+      </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -3020,10 +3319,18 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="F58" s="1">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H58" s="1">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1">
+        <v>3</v>
+      </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3042,14 +3349,24 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="F59" s="1">
+        <v>12</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" s="1">
+        <v>15</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3</v>
+      </c>
       <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+      <c r="K59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -3064,14 +3381,28 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="F60" s="1">
+        <v>13</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H60" s="1">
+        <v>10</v>
+      </c>
+      <c r="I60" s="1">
+        <v>3</v>
+      </c>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -3086,14 +3417,30 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+      <c r="F61" s="1">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="1">
+        <v>20</v>
+      </c>
+      <c r="I61" s="1">
+        <v>3</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -3108,14 +3455,28 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="F62" s="1">
+        <v>15</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" s="1">
+        <v>10</v>
+      </c>
+      <c r="I62" s="1">
+        <v>3</v>
+      </c>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="K62" s="1">
+        <v>2</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -3135,9 +3496,15 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
+      <c r="K63" s="1">
+        <v>3</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M63" s="1">
+        <v>1</v>
+      </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -3157,9 +3524,15 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="K64" s="1">
+        <v>4</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -3179,9 +3552,15 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
+      <c r="K65" s="1">
+        <v>5</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M65" s="1">
+        <v>2</v>
+      </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -3201,9 +3580,15 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
+      <c r="K66" s="1">
+        <v>6</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M66" s="1">
+        <v>2</v>
+      </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -3223,9 +3608,15 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
+      <c r="K67" s="1">
+        <v>7</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M67" s="1">
+        <v>2</v>
+      </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -3236,78 +3627,50 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1">
+        <v>8</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M68" s="1">
+        <v>2</v>
+      </c>
+      <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q68" s="2"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -3400,18 +3763,493 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P88:Q88"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="E88:J88"/>
+    <mergeCell ref="L88:N88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>